--- a/tables/StellarParam.xlsx
+++ b/tables/StellarParam.xlsx
@@ -5,22 +5,35 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luukv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luukv\Documenten\NatuurSterrkenkundeMasterProject\CodeMP\MasterProject\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5E7F27A-CC35-445E-93D4-8AA2260CABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B029D6D-C3E9-46AA-AD88-9AFEAE8A0B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>ST</t>
   </si>
@@ -164,6 +177,24 @@
   </si>
   <si>
     <t>O9.5I</t>
+  </si>
+  <si>
+    <t>B0I</t>
+  </si>
+  <si>
+    <t>B1I</t>
+  </si>
+  <si>
+    <t>B0III</t>
+  </si>
+  <si>
+    <t>B1III</t>
+  </si>
+  <si>
+    <t>B0V</t>
+  </si>
+  <si>
+    <t>B1V</t>
   </si>
 </sst>
 </file>
@@ -541,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1986,80 @@
         <v>47.35</v>
       </c>
     </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <f>(B36-1810)</f>
+        <v>29558</v>
+      </c>
+      <c r="F38">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <f>(B37-1810)</f>
+        <v>28653</v>
+      </c>
+      <c r="F39">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1">
+        <f>(B24-2115)</f>
+        <v>29731</v>
+      </c>
+      <c r="F40">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1">
+        <f>(B25-2115)</f>
+        <v>28674</v>
+      </c>
+      <c r="F41">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <f>(B12-1995)</f>
+        <v>30887</v>
+      </c>
+      <c r="F42">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <f>(B13-1995)</f>
+        <v>29889</v>
+      </c>
+      <c r="F43">
+        <v>4.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tables/StellarParam.xlsx
+++ b/tables/StellarParam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luukv\Documenten\NatuurSterrkenkundeMasterProject\CodeMP\MasterProject\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B029D6D-C3E9-46AA-AD88-9AFEAE8A0B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C39B440-FA73-4B30-9072-41DD604C17D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>ST</t>
   </si>
@@ -177,24 +177,6 @@
   </si>
   <si>
     <t>O9.5I</t>
-  </si>
-  <si>
-    <t>B0I</t>
-  </si>
-  <si>
-    <t>B1I</t>
-  </si>
-  <si>
-    <t>B0III</t>
-  </si>
-  <si>
-    <t>B1III</t>
-  </si>
-  <si>
-    <t>B0V</t>
-  </si>
-  <si>
-    <t>B1V</t>
   </si>
 </sst>
 </file>
@@ -572,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1986,77 +1968,11 @@
         <v>47.35</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38">
-        <f>(B36-1810)</f>
-        <v>29558</v>
-      </c>
-      <c r="F38">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39">
-        <f>(B37-1810)</f>
-        <v>28653</v>
-      </c>
-      <c r="F39">
-        <v>5.47</v>
-      </c>
-    </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="1">
-        <f>(B24-2115)</f>
-        <v>29731</v>
-      </c>
-      <c r="F40">
-        <v>5.07</v>
-      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="1">
-        <f>(B25-2115)</f>
-        <v>28674</v>
-      </c>
-      <c r="F41">
-        <v>4.93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42">
-        <f>(B12-1995)</f>
-        <v>30887</v>
-      </c>
-      <c r="F42">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43">
-        <f>(B13-1995)</f>
-        <v>29889</v>
-      </c>
-      <c r="F43">
-        <v>4.41</v>
-      </c>
+      <c r="B41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
